--- a/xlsx/非政府组织_intext.xlsx
+++ b/xlsx/非政府组织_intext.xlsx
@@ -29,7 +29,7 @@
     <t>NGO (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_政治學_非政府组织</t>
+    <t>政策_政策_政治学_非政府组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%BF%E8%89%B2%E5%92%8C%E5%B9%B3</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%E9%9C%8D%E6%99%AE%E9%87%91%E6%96%AF%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>約翰霍普金斯大學</t>
+    <t>约翰霍普金斯大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%8C%96%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際標準化組織</t>
+    <t>国际标准化组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E4%BF%9D%E6%8A%A4</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%AC%E9%83%BD%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>京都條約</t>
+    <t>京都条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%A1%E5%AF%BC%E5%9B%A2%E4%BD%93</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E7%81%A3%E5%8D%8A%E5%B3%B6</t>
   </si>
   <si>
-    <t>紅灣半島</t>
+    <t>红湾半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99</t>
@@ -197,13 +197,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E7%89%B9%E8%B5%A6%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際特赦組織</t>
+    <t>国际特赦组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%84%9B%E7%88%BE%E8%98%AD</t>
   </si>
   <si>
-    <t>北愛爾蘭</t>
+    <t>北爱尔兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A8%82%E6%96%BD%E6%9C%83</t>
   </si>
   <si>
-    <t>樂施會</t>
+    <t>乐施会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/IFEX_(organization)</t>
@@ -305,7 +305,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%B1%95%E6%9C%9B%E6%9C%83</t>
   </si>
   <si>
-    <t>世界展望會</t>
+    <t>世界展望会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%BA%E8%B4%9D%E5%B0%94%E5%A5%96</t>
@@ -329,31 +329,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E5%85%A7%E7%93%A6%E5%85%AC%E7%B4%84</t>
   </si>
   <si>
-    <t>日內瓦公約</t>
+    <t>日内瓦公约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E5%8D%81%E5%AD%97%E6%9C%83</t>
   </si>
   <si>
-    <t>紅十字會</t>
+    <t>红十字会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E6%96%B0%E6%9C%88%E6%9C%83</t>
   </si>
   <si>
-    <t>紅新月會</t>
+    <t>红新月会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E5%8D%81%E5%AD%97%E5%9C%8B%E9%9A%9B%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>紅十字國際委員會</t>
+    <t>红十字国际委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E5%8D%81%E5%AD%97%E6%9C%83%E8%88%87%E7%B4%85%E6%96%B0%E6%9C%88%E6%9C%83%E5%9C%8B%E9%9A%9B%E8%81%AF%E5%90%88%E6%9C%83</t>
   </si>
   <si>
-    <t>紅十字會與紅新月會國際聯合會</t>
+    <t>红十字会与红新月会国际联合会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E6%B3%95</t>
@@ -371,7 +371,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -389,7 +389,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>

--- a/xlsx/非政府组织_intext.xlsx
+++ b/xlsx/非政府组织_intext.xlsx
@@ -29,7 +29,7 @@
     <t>NGO (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_政治學_非政府组织</t>
+    <t>体育运动_体育运动_国际奥林匹克委员会_非政府组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%BF%E8%89%B2%E5%92%8C%E5%B9%B3</t>
